--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.86</v>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.86</v>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.2</v>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.86</v>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1870,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.86</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+          <t>嘉实核心蓝筹混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6221</t>
+          <t>0.4048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>011924</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>嘉实港股互联网产业核心资产混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+          <t>嘉实核心蓝筹混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>011925</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>嘉实港股互联网产业核心资产混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>009127</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -950,22 +1043,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6355</t>
+          <t>0.6221</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -988,26 +1081,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1026,22 +1119,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1064,22 +1157,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1102,22 +1195,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1140,26 +1233,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1168,6 +1261,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00667-中国东方教育.xlsx
+++ b/数据整理/stocks/港股/00667-中国东方教育.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.86</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -969,290 +1630,6 @@
       </c>
       <c r="H9" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6221</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1245</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012672</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实核心蓝筹混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1327,22 +1704,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6355</t>
+          <t>0.6221</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1365,26 +1742,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1403,22 +1780,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1441,22 +1818,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1479,22 +1856,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1517,26 +1894,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1545,6 +1922,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +2413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1922,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,174 +2921,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>